--- a/Jobs-Scrapping.xlsx
+++ b/Jobs-Scrapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\NodeJS\Jobs--Scrapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c682ae218ba6c68c/Desktop/NodeJS/Jobs--Scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EA6EF8-DF93-4A1F-ABAB-AAE9461D676E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_DE87412080693E752A6002C590D2864BA12E10E6" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16860" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jobs" sheetId="1" r:id="rId1"/>

--- a/Jobs-Scrapping.xlsx
+++ b/Jobs-Scrapping.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Jobs" sheetId="1" r:id="rId1"/>
+    <sheet name="jobs" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +421,8 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Sr. Analyst II software Engineering
+        <v xml:space="preserve">
+      Sr. Analyst II software Engineering
       Manager Cloud Engineering-2
       Senior Automation Engineer, Redwood Platform
       Global Banking &amp; Markets Operations - Trade Processing - Associate - Bengaluru
@@ -448,7 +449,8 @@
       SDE2 - Fullstack with AI experience</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">DXC Technologies
+        <v xml:space="preserve">
+		    DXC Technologies
 		    DXC Technologies
 		    ORACLE
 		    Goldman Sachs Services Pvt Ltd
@@ -472,7 +474,8 @@
 		    ORACLE
 		    ORACLE
 		    ORACLE
-		    Adobe Systems Ltd</v>
+		    Adobe Systems Ltd
+		    </v>
       </c>
       <c r="C2" t="str">
         <v>Noida/Greater Noida</v>
@@ -481,7 +484,8 @@
         <v>Posted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted today</v>
       </c>
       <c r="E2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Qualification: BE/B-Tech/M-Tech/MCA degree or equivalent with programming experience.Minimum Technical Experience: 6-9 yearsTechnical Skills:.NET, .NE... 
+        <v xml:space="preserve">
+			Qualification: BE/B-Tech/M-Tech/MCA degree or equivalent with programming experience.Minimum Technical Experience: 6-9 yearsTechnical Skills:.NET, .NE... 
 			Responsibilities24*7 Support of DXC production Cloud Offerings including operations, incidents, service requests, and execution of changes.Proactively... 
 			Senior Automation Engineer, Redwood PlatformLocation:BENGALURU, KARNATAKA, IndiaHYDERABAD, TELANGANA, IndiaBE THE FIRST TO APPLYJob Identification2821... 
 			GLOBAL BANKING &amp;amp; MARKETSWe make markets in and clear client transactions on major stock, options and futures exchanges worldwide. Through our ... 
@@ -505,12 +509,14 @@
 			Senior Software DeveloperLocation: BENGALURU, KARNATAKA, IndiaJob Identification: 278678Job Category: Product DevelopmentPosting Date: 02/14/2025, 09:... 
 			Lead Oracle DBA/Exadata DBALocation: MUMBAI, MAHARASHTRA, IndiaJob Identification: 281466Job Category: SupportPosting Date: 03/04/2025, 06:45 PMRole: ... 
 			Lead Oracle DBA/Exadata DBALocation: MUMBAI, MAHARASHTRA, IndiaJob ID: 281467Job Category: SupportPosting Date: 03/04/2025, 06:49 PMRole: Individual C... 
-			Our CompanyChanging the world through digital experiences is what Adobes all about. We give everyonefrom emerging artists to global brandseverything t...</v>
+			Our CompanyChanging the world through digital experiences is what Adobes all about. We give everyonefrom emerging artists to global brandseverything t... 
+     	 </v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Mgr, Software Development
+        <v xml:space="preserve">
+      Mgr, Software Development
       Program Manager (Client Services)
       Software Developer 3
       Software Engineer
@@ -537,7 +543,8 @@
       Specialist-Process Transformation Job Details | Corning</v>
       </c>
       <c r="B3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Adobe Systems Ltd
+        <v xml:space="preserve">
+		    Adobe Systems Ltd
 		    Adobe Systems Ltd
 		    ORACLE
 		    ORACLE
@@ -561,7 +568,8 @@
 		    Exxonmobil Company India Pvt Ltd
 		    ServiceNow
 		    ServiceNow
-		    Corning</v>
+		    Corning
+		    </v>
       </c>
       <c r="C3" t="str">
         <v>Bengaluru / Bangalore</v>
@@ -570,7 +578,8 @@
         <v>Posted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted today</v>
       </c>
       <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Our CompanyChanging the world through digital experiences is what Adobes all about. We give everyonefrom emerging artists to global brandseverything t... 
+        <v xml:space="preserve">
+			Our CompanyChanging the world through digital experiences is what Adobes all about. We give everyonefrom emerging artists to global brandseverything t... 
 			Our CompanyChanging the world through digital experiences is what Adobes all about. We give everyonefrom emerging artists to global brandseverything t... 
 			Software Developer 3Location: HYDERABAD, TELANGANA, IndiaJob Identification: 282079Job Category: Product DevelopmentPosting Date: 03/06/2025, 11:40 PM... 
 			Software EngineerLocation: BENGALURU, KARNATAKA, IndiaBE THE FIRST TO APPLYJob Identification: 281700Job Category: Product DevelopmentPosting Date: 03... 
@@ -594,12 +603,14 @@
 			Business Development Advisor - Low Carbon Data CentersLocation: Spring, TX, USCompany: ExxonMobilAbout usAt ExxonMobil, our vision is to lead in energ... 
 			Company DescriptionIt all started in sunny San Diego, California in 2004 when a visionary engineer, Fred Luddy, saw the potential to transform how we ... 
 			Company DescriptionIt all started in sunny San Diego, California in 2004 when a visionary engineer, Fred Luddy, saw the potential to transform how we ... 
-			Specialist-Process TransformationDate: Mar 7, 2025Location: Gurgaon, HR, IN, 122002Company: CorningRequisition Number: 67457Corning is vital to progre...</v>
+			Specialist-Process TransformationDate: Mar 7, 2025Location: Gurgaon, HR, IN, 122002Company: CorningRequisition Number: 67457Corning is vital to progre... 
+     	 </v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Lead Software Engineer
+        <v xml:space="preserve">
+      Lead Software Engineer
       Head of Sales - TATA Group and Metals &amp; Mining Business, SAP India Job Details | SAP
       QA cum IT Project Coordinator
       SEO Executive
@@ -626,7 +637,8 @@
       Chapter Lead MES/MOM Development Job Details | Vestas</v>
       </c>
       <c r="B4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Morningstar India Pvt Ltd
+        <v xml:space="preserve">
+		    Morningstar India Pvt Ltd
 		    SAP Ariba
 		    IndiaInternets
 		    IndiaInternets
@@ -650,7 +662,8 @@
 		    unitedhealth group information services
 		    Yash Technologies Pvt Ltd
 		    unitedhealth group information services
-		    Vestas Wind Technology India Pvt Ltd</v>
+		    Vestas Wind Technology India Pvt Ltd
+		    </v>
       </c>
       <c r="C4" t="str">
         <v>Chicago</v>
@@ -659,7 +672,8 @@
         <v>Posted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted today</v>
       </c>
       <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Position Title: Lead Software EngineerThe Area:The Morningstar Indexes Team leverages its expertise in equity research, manager research, asset alloca... 
+        <v xml:space="preserve">
+			Position Title: Lead Software EngineerThe Area:The Morningstar Indexes Team leverages its expertise in equity research, manager research, asset alloca... 
 			SalesHead of Sales - TATA Group and Metals &amp;amp; Mining Business, SAP IndiaWe help the world run betterAt SAP, we enable you to bring out your bes... 
 			JOB DESCRIPTIONUnderstand and analyze client requirements, ensuring clear documentation of specifications.Organize and create detailed scope of work (... 
 			JOB DESCRIPTION:Conduct on-site and off-site SEO analysis and competitor research.Use Google Analytics to generate regular performance reports.Create ... 
@@ -683,12 +697,14 @@
 			Optum is a global organization that delivers care, aided by technology to help millions of people live healthier lives. The work you do with our team ... 
 			Tech Lead - Python JobDate: Feb 20, 2025Job Requisition Id: 60408Location: Pune, INYASH Technologies is a leading technology integrator specializing i... 
 			Optum is a global organization that delivers care, aided by technology to help millions of people live healthier lives. The work you do with our team ... 
-			Chapter Lead MES/MOM DevelopmentRequisition ID: 64128Location(s): Chennai, TN, INWork experience: Team LeaderType of position: Full-TimeJob Family: In...</v>
+			Chapter Lead MES/MOM DevelopmentRequisition ID: 64128Location(s): Chennai, TN, INWork experience: Team LeaderType of position: Full-TimeJob Family: In... 
+     	 </v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Senior Software Engineer (C, DNS)
+        <v xml:space="preserve">
+      Senior Software Engineer (C, DNS)
       Deputy Manager - TL:ADAS Systems
       Enterprise Sales Officer T2 ( 82241840 )
       Enterprise Sales Officer T1 ( 82244146 )
@@ -715,7 +731,8 @@
       Senior Software Engineer - Data   AI Observability</v>
       </c>
       <c r="B5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Infoblox
+        <v xml:space="preserve">
+		    Infoblox
 		    renault nissan
 		    Reliance Jio Infocomm Limited
 		    Reliance Jio Infocomm Limited
@@ -739,7 +756,8 @@
 		    SBM OFFSHORE
 		    Databricks
 		    Reliance Jio Infocomm Limited
-		    Databricks</v>
+		    Databricks
+		    </v>
       </c>
       <c r="C5" t="str">
         <v>Bengaluru / Bangalore</v>
@@ -748,7 +766,8 @@
         <v>Posted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted today</v>
       </c>
       <c r="E5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Senior Software Engineer (C, DNS)EngineeringBangalore, IndiaDescriptionIts an exciting time to be at Infoblox. Named a Top 25 Cyber Security Company b... 
+        <v xml:space="preserve">
+			Senior Software Engineer (C, DNS)EngineeringBangalore, IndiaDescriptionIts an exciting time to be at Infoblox. Named a Top 25 Cyber Security Company b... 
 			CompanyRNTBCI PLLead the development and integration of Advanced Driver Assistance Systems (ADAS), including features such as adaptive cruise control,... 
 			Posted Date:07 Mar 2025Function/Business Area:Sales and DistributionLocation:Madurai 2 - VillapuramJob Responsibilities:Drive small and medium enterpr... 
 			Posted Date :07 Mar 2025Function/Business Area :Sales and DistributionLocation :Hyderabad 10 - MadinagudaJob Responsibilities :Drive small and medium ... 
@@ -772,12 +791,14 @@
 			Senior Piping Material EngineerReq Id: 17598Job Family: Piping MaterialLocation: Bangalore, IN, 560071Additional Location:Description: Imagine your ca... 
 			P-160Who We AreOur GenAI observability and quality product provides advanced monitoring and insights for GenAI systems, giving customers real-time vis... 
 			Posted Date: 07 Mar 2025Function/Business Area: Product ManagementLocation: MumbaiJob Responsibilities:This role is responsible for developing product... 
-			P-1385Companies are investing billions of dollars into developing and deploying AI and the data platforms that enable it. But do they know what is hap...</v>
+			P-1385Companies are investing billions of dollars into developing and deploying AI and the data platforms that enable it. But do they know what is hap... 
+     	 </v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str" xml:space="preserve">
-        <v xml:space="preserve">Lead, Software Engineering
+        <v xml:space="preserve">
+      Lead, Software Engineering
       SDET Python Automations   Performance Testing (2-4yrs)
       Services Solutions Consultant [EMEA Shift]
       Security Engineer I (Application Security)
@@ -804,7 +825,8 @@
       Services Operations Program Manager</v>
       </c>
       <c r="B6" t="str" xml:space="preserve">
-        <v xml:space="preserve">northern trust corp ltd - london
+        <v xml:space="preserve">
+		    northern trust corp ltd - london
 		    Nutanix
 		    Mindtickle
 		    coinswitch
@@ -828,7 +850,8 @@
 		    northern trust corp ltd - london
 		    northern trust corp ltd - london
 		    northern trust corp ltd - london
-		    gigamon</v>
+		    gigamon
+		    </v>
       </c>
       <c r="C6" t="str">
         <v>Chicago</v>
@@ -837,7 +860,8 @@
         <v>Posted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted today</v>
       </c>
       <c r="E6" t="str" xml:space="preserve">
-        <v xml:space="preserve">About Northern TrustNorthern Trust, a Fortune 500 company, is a globally recognized, award-winning financial institution that has been in continuous o... 
+        <v xml:space="preserve">
+			About Northern TrustNorthern Trust, a Fortune 500 company, is a globally recognized, award-winning financial institution that has been in continuous o... 
 			SDET Python Automations   Performance Testing (2-4yrs)Location: Bangalore, IndiaReq.Num.: 28755Hungry, Humble, Honest, with Heart.The OpportunityA kee... 
 			Who we areMindtickle is the market-leading revenue productivity platform that combines on-the-job learning and deal execution to get more revenue per ... 
 			Know the CompanyPeepalCo is a house for brands serving India with tailored wealth-tech products, Making Money Equal for All. Founded by Ashish Singhal... 
@@ -861,12 +885,14 @@
 			About Northern Trust:Northern Trust, a Fortune 500 company, is a globally recognized, award-winning financial institution that has been in continuous ... 
 			About Northern Trust:Northern Trust, a Fortune 500 company, is a globally recognized, award-winning financial institution that has been in continuous ... 
 			About Northern Trust:Northern Trust, a Fortune 500 company, is a globally recognized, award-winning financial institution that has been in continuous ... 
-			Services Operations Program ManagerLocation: Operations Guindy, Chennai, Tamil NaduDescriptionDigital Transformation is the path to the future with it...</v>
+			Services Operations Program ManagerLocation: Operations Guindy, Chennai, Tamil NaduDescriptionDigital Transformation is the path to the future with it... 
+     	 </v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str" xml:space="preserve">
-        <v xml:space="preserve">Sr Software Engineer
+        <v xml:space="preserve">
+      Sr Software Engineer
       Senior Software Engineer
       Infrastructure Vulnerability Consultant - (Cloud Security CSPM)
       Senior 4G Software Engineer Israel 301-Engineering  301-Engineering / Full Time / Hybrid
@@ -893,7 +919,8 @@
       Principal Consultant (DevOps)</v>
       </c>
       <c r="B7" t="str" xml:space="preserve">
-        <v xml:space="preserve">blue yonder
+        <v xml:space="preserve">
+		    blue yonder
 		    Microsoft India Pvt Ltd
 		    blue yonder
 		    Parallel Wireless
@@ -917,7 +944,8 @@
 		    Adobe Systems Ltd
 		    ORACLE
 		    ORACLE
-		    ORACLE</v>
+		    ORACLE
+		    </v>
       </c>
       <c r="C7" t="str">
         <v>Hyderabad/Secunderabad</v>
@@ -926,7 +954,8 @@
         <v>Posted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted today</v>
       </c>
       <c r="E7" t="str" xml:space="preserve">
-        <v xml:space="preserve">Overview:Leading AI-driven Global Supply Chain Solutions Software Product Company and one of Glassdoors Best Places to WorkSeeking an astute individua... 
+        <v xml:space="preserve">
+			Overview:Leading AI-driven Global Supply Chain Solutions Software Product Company and one of Glassdoors Best Places to WorkSeeking an astute individua... 
 			OverviewSecurity represents the most critical priorities for our customers in a world awash in digital threats, regulatory scrutiny, and estate comple... 
 			Scope:Core responsibilities include assessing and promoting remediation for all the assets in the Infrastructure as a Service (IaaS) and Software as a... 
 			Senior 4G Software EngineerLocation: IsraelDepartment: 301-EngineeringEmployment Type: Full TimeWork Model: HybridWe are looking for a Senior 4G Softw... 
@@ -950,12 +979,14 @@
 			Our CompanyChanging the world through digital experiences is what Adobes all about. We give everyonefrom emerging artists to global brandseverything t... 
 			: Principal Consultant - Oracle DatabaseLocation:BENGALURU, KARNATAKA, IndiaMUMBAI, MAHARASHTRA, IndiaCHENNAI, TAMIL NADU, IndiaHYDERABAD, TELANGANA, ... 
 			Senior User Experience DesignerLocations:BENGALURU, KARNATAKA, IndiaHYDERABAD, TELANGANA, IndiaJob Identification277219Job CategoryProduct Development... 
-			: Principal Consultant (DevOps)Location:BENGALURU, KARNATAKA, IndiaHYDERABAD, TELANGANA, IndiaMUMBAI, MAHARASHTRA, IndiaPUNE, MAHARASHTRA, IndiaKOLKAT...</v>
+			: Principal Consultant (DevOps)Location:BENGALURU, KARNATAKA, IndiaHYDERABAD, TELANGANA, IndiaMUMBAI, MAHARASHTRA, IndiaPUNE, MAHARASHTRA, IndiaKOLKAT... 
+     	 </v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str" xml:space="preserve">
-        <v xml:space="preserve">Principal Consultant: Oracle Database
+        <v xml:space="preserve">
+      Principal Consultant: Oracle Database
       Senior Consultant - Oracle Database Administrator
       Resume with Razorpay - Intern - Program Manager
       Senior Software Development Engineer
@@ -982,7 +1013,8 @@
       Solution Architect, Generative AI - Digital Human</v>
       </c>
       <c r="B8" t="str" xml:space="preserve">
-        <v xml:space="preserve">ORACLE
+        <v xml:space="preserve">
+		    ORACLE
 		    ORACLE
 		    Razorpay
 		    Razorpay
@@ -1006,7 +1038,8 @@
 		    Tetra Pak India Pvt Ltd
 		    Yash Technologies Pvt Ltd
 		    Sysvine Technologies
-		    Nvidia Graphics Pvt Ltd</v>
+		    Nvidia Graphics Pvt Ltd
+		    </v>
       </c>
       <c r="C8" t="str">
         <v>Chennai,  Mumbai,  Bengaluru / Bangalore,  Pune,  Hyderabad/Secunderabad</v>
@@ -1015,7 +1048,8 @@
         <v>Posted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted today</v>
       </c>
       <c r="E8" t="str" xml:space="preserve">
-        <v xml:space="preserve">Principal Consultant: Oracle DatabaseLocations:BENGALURU, KARNATAKA, IndiaMUMBAI, MAHARASHTRA, IndiaCHENNAI, TAMIL NADU, IndiaHYDERABAD, TELANGANA, In... 
+        <v xml:space="preserve">
+			Principal Consultant: Oracle DatabaseLocations:BENGALURU, KARNATAKA, IndiaMUMBAI, MAHARASHTRA, IndiaCHENNAI, TAMIL NADU, IndiaHYDERABAD, TELANGANA, In... 
 			Senior Consultant - Oracle Database AdministratorLocation: BENGALURU, KARNATAKA, IndiaJob Identification: 277178Job Category: ConsultingPosting Date: ... 
 			Razorpay was founded by Shashank Kumar and Harshil Mathur in 2014. Razorpay is building a new-age digital banking hub (Neobank) for businesses in Indi... 
 			Razorpay was founded by Shashank Kumar and Harshil Mathur in 2014. Razorpay is building a new-age digital banking hub (Neobank) for businesses in Indi... 
@@ -1039,12 +1073,14 @@
 			: S4/HANA SD AnalystDate: 4 Feb 2025Location: Pune, INCompany: Tetra PakAt Tetra Pak, we commit to making food safe and available everywhere; and we p... 
 			Sr. Software Engineer - Power Apps   SharePoint JobDate: Feb 4, 2025Job Requisition Id: 60206Location: Pune, IN Pune, MH, INYASH Technologies is a lea... 
 			Senior Systems Engineer  DevOps MSA  REQ/0733Job Id: REQ/0733Location: ChennaiExperience: 6 to 10 YearsCTC: 12L to 20LDate Posted: 04-Feb-2025Employme... 
-			Do you want to be part of the team that brings Artificial Intelligence (AI) technology to the field? We are looking for a Solution Architect or Data S...</v>
+			Do you want to be part of the team that brings Artificial Intelligence (AI) technology to the field? We are looking for a Solution Architect or Data S... 
+     	 </v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Staff SW Engineer (Java, Spring boot, Kafka, 7  years)
+        <v xml:space="preserve">
+      Staff SW Engineer (Java, Spring boot, Kafka, 7  years)
       Senior AI Scientist
       People Technology - Staff Software Engineer
       Sr. Software Engineer - Java React AWS 1 Job Job Details | Yash Technologies
@@ -1071,7 +1107,8 @@
       Technology Specialist: Internship Opportunities</v>
       </c>
       <c r="B9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Visa Inc.
+        <v xml:space="preserve">
+		    Visa Inc.
 		    Uniphore Software Systems
 		    Visa Inc.
 		    Yash Technologies Pvt Ltd
@@ -1095,7 +1132,8 @@
 		    Visa Inc.
 		    Schneider Electric Pvt Ltd
 		    ORACLE
-		    Microsoft India Pvt Ltd</v>
+		    Microsoft India Pvt Ltd
+		    </v>
       </c>
       <c r="C9" t="str">
         <v>Bengaluru / Bangalore</v>
@@ -1104,7 +1142,8 @@
         <v>Posted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted today</v>
       </c>
       <c r="E9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Visas Technology Organization is a community of problem solvers and innovators reshaping the future of commerce. We operate the worlds most sophistica... 
+        <v xml:space="preserve">
+			Visas Technology Organization is a community of problem solvers and innovators reshaping the future of commerce. We operate the worlds most sophistica... 
 			Uniphore is one of the largest B2B AI-native companiesdecades-proven, built-for-scale and designed for the enterprise. The company drives business out... 
 			Our People Technology team seeks a Staff Software Engineer in Bengaluru to deliver state-of-the-art GAI solutions for our People Team. You will play a... 
 			Sr. Software Engineer - Java React AWS 1 JobDate: Feb 4, 2025Job Requisition Id: 59687Location: Pune, INWe are looking forward to hire FullStack (Java... 
@@ -1128,12 +1167,14 @@
 			OverviewVisa Inc. is at the forefront of the GenAI revolution, aiming to establish itself as the world's leading data-driven payments company. We are ... 
 			: SAP PS Consultant - 0093GQTechnical Competencies6-8 years of SAP SD experience as a consultant with complex and multiple projects (both complete Cor... 
 			Oracle Fusion Technical AnalystLocations:Bengaluru, Karnataka, IndiaHyderabad, Telangana, IndiaNoida, Uttar Pradesh, IndiaBE THE FIRST TO APPLYJob Ide... 
-			OverviewThis is a full-time, twelve-week internship from June to September 2025.Come build community, explore your passions and do your best work at M...</v>
+			OverviewThis is a full-time, twelve-week internship from June to September 2025.Come build community, explore your passions and do your best work at M... 
+     	 </v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str" xml:space="preserve">
-        <v xml:space="preserve">Senior Product Manager - SONiC
+        <v xml:space="preserve">
+      Senior Product Manager - SONiC
       Senior Plsql Flexcube Developer
       Analyst/Specialist I/II Job Details | Corning
       Engineering- Business Platform Engineering-Associate-Software Engineering-Bengaluru
@@ -1160,7 +1201,8 @@
       ION Group - Senior DevOps Engineer</v>
       </c>
       <c r="B10" t="str" xml:space="preserve">
-        <v xml:space="preserve">Nvidia Graphics Pvt Ltd
+        <v xml:space="preserve">
+		    Nvidia Graphics Pvt Ltd
 		    ORACLE
 		    Corning
 		    Goldman Sachs Services Pvt Ltd
@@ -1184,7 +1226,8 @@
 		    Schneider Electric Pvt Ltd
 		    SAP Ariba
 		    Schneider Electric Pvt Ltd
-		    ion trading india pvt. ltd.</v>
+		    ion trading india pvt. ltd.
+		    </v>
       </c>
       <c r="C10" t="str">
         <v>Israel</v>
@@ -1193,7 +1236,8 @@
         <v>Posted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted today</v>
       </c>
       <c r="E10" t="str" xml:space="preserve">
-        <v xml:space="preserve">: Senior Product ManagerWant to join a fun, creative company that is on the cutting edge of amazing technologies? NVIDIAs fast-growing Datacenter Ethe... 
+        <v xml:space="preserve">
+			: Senior Product ManagerWant to join a fun, creative company that is on the cutting edge of amazing technologies? NVIDIAs fast-growing Datacenter Ethe... 
 			Senior PL/SQL FLEXCUBE DeveloperLocation:MUMBAI, MAHARASHTRA, IndiaPUNE, MAHARASHTRA, IndiaJob Identification272772Job CategoryConsultingPosting Date0... 
 			: Analyst/Specialist I/IIDate: Jan 7, 2025Location: Gurgaon, HR, IN, 122002Company: CorningRequisition Number: 66263Corning is vital to progress  in t... 
 			What we doAt Goldman Sachs, our Engineers dont just make things  we make things possible. We change the world by connecting people and capital with id... 
@@ -1217,12 +1261,14 @@
 			: Firmware, Senior Design Engineer - 00904VDescription - ExternalPrimary responsibility will be contributing to the embedded application development i... 
 			Information TechnologyIT Technology Services Expert - RDMS &amp;amp; HANA / ASE: SAP LABSWe help the world run betterAt SAP, we enable you to bring ou... 
 			Senior Cloud Architect - 0093CSCompany OverviewSchneider Electric is a global leader in energy management and automation, committed to providing innov... 
-			Senior DevOps EngineerLocation: BudapestCompany: ION Analytics  DevelopmentEmployment Type: Full-timeWork Environment: On-siteThe RoleAs a Senior DevO...</v>
+			Senior DevOps EngineerLocation: BudapestCompany: ION Analytics  DevelopmentEmployment Type: Full-timeWork Environment: On-siteThe RoleAs a Senior DevO... 
+     	 </v>
       </c>
     </row>
     <row r="11" xml:space="preserve">
       <c r="A11" t="str" xml:space="preserve">
-        <v xml:space="preserve">Software, Deputy General Manager
+        <v xml:space="preserve">
+      Software, Deputy General Manager
       Devops Engineer
       Module Lead
       Information Security Analyst- L2
@@ -1249,7 +1295,8 @@
       Customer Program Manager - Auto</v>
       </c>
       <c r="B11" t="str" xml:space="preserve">
-        <v xml:space="preserve">Schneider Electric Pvt Ltd
+        <v xml:space="preserve">
+		    Schneider Electric Pvt Ltd
 		    THE DIGITAL GROUP
 		    eurofins it solutions pvt ltd
 		    eurofins it solutions pvt ltd
@@ -1273,7 +1320,8 @@
 		    cloudi5 technologies
 		    epifi - asuureedge global services pvt ltd
 		    Nvidia Graphics Pvt Ltd
-		    Nvidia Graphics Pvt Ltd</v>
+		    Nvidia Graphics Pvt Ltd
+		    </v>
       </c>
       <c r="C11" t="str">
         <v>Bengaluru / Bangalore</v>
@@ -1282,7 +1330,8 @@
         <v>Posted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted today</v>
       </c>
       <c r="E11" t="str" xml:space="preserve">
-        <v xml:space="preserve">Job Title: Software, Deputy General Manager - 00960RPosition: Software Engineering ManagerDescription:Lead a world class team to build cutting edge fe... 
+        <v xml:space="preserve">
+			Job Title: Software, Deputy General Manager - 00960RPosition: Software Engineering ManagerDescription:Lead a world class team to build cutting edge fe... 
 			: DevOps EngineerYears of Experience: 5-10 YearsSkills Stack:Shift Timings: 05:30 am - 05:30 amRole and Responsibility Details:: AWS Expertise:In-dept... 
 			Module LeadFull-timeCompany DescriptionEurofins Scientific is an international life sciences company, providing a unique range of analytical testing s... 
 			: Information Security Analyst- L2Full-timeCompany DescriptionEurofins Scientific is an international life sciences company, providing a unique range ... 
@@ -1306,12 +1355,14 @@
 			Laravel DeveloperNumber of Vacancy: 1Job Id: CI5J02Job Type: Full TimeQualification:Skills:LaravelPHPRestful APIsMySQLHTMLCSSJavascriptExperience:1-3 ... 
 			: Security EngineerLocation: BangaloreTech: SecurityType: Full-timeWork Mode: On-siteAbout epiFiWho we are:Simply put, a Fin-Tech startup for digital ... 
 			Our work at NVIDIA is dedicated to a computing model focused on visual and AI computing. For two decades, NVIDIA has pioneered visual computing, the a... 
-			At NVIDIA, our employees are passionate about parallel and visual computing which is becoming the backbone of the recent Artificial Intelligence revol...</v>
+			At NVIDIA, our employees are passionate about parallel and visual computing which is becoming the backbone of the recent Artificial Intelligence revol... 
+     	 </v>
       </c>
     </row>
     <row r="12" xml:space="preserve">
       <c r="A12" t="str" xml:space="preserve">
-        <v xml:space="preserve">Expert technique Cobol MVS (F/H)
+        <v xml:space="preserve">
+      Expert technique Cobol MVS (F/H)
       Senior Software Engineer - Robot Learning Platform
       Principal User Experience Designer
       Senior Principal Consultant - PLSQL /Java
@@ -1338,7 +1389,8 @@
       Architects/Engineers - Mobility</v>
       </c>
       <c r="B12" t="str" xml:space="preserve">
-        <v xml:space="preserve">CGI Information Systems and Management Consultants Pvt Ltd
+        <v xml:space="preserve">
+		    CGI Information Systems and Management Consultants Pvt Ltd
 		    Nvidia Graphics Pvt Ltd
 		    ORACLE
 		    ORACLE
@@ -1362,7 +1414,8 @@
 		    TravelKhana
 		    TravelKhana
 		    Tyfone Communications development  ( India )  Pvt. Ltd
-		    TravelKhana</v>
+		    TravelKhana
+		    </v>
       </c>
       <c r="C12" t="str">
         <v>Morocco</v>
@@ -1371,7 +1424,8 @@
         <v>Posted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted today</v>
       </c>
       <c r="E12" t="str" xml:space="preserve">
-        <v xml:space="preserve">Position DescriptionDans le cadre de notre dveloppement, nous recrutons un Expert technique Cobol MVS sur Rabat.LocationsExpert technique Cobol MVS (F... 
+        <v xml:space="preserve">
+			Position DescriptionDans le cadre de notre dveloppement, nous recrutons un Expert technique Cobol MVS sur Rabat.LocationsExpert technique Cobol MVS (F... 
 			Today, NVIDIA is tapping into the unlimited potential of AI to define the next era of computing. An era in which our GPU acts as the brains of compute... 
 			Principal User Experience DesignerLocation: BENGALURU, KARNATAKA, IndiaJob Identification: 262163Job Category: Product DevelopmentPosting Date: 10/28/... 
 			Senior Principal Consultant - PLSQL /JavaLocation: Bengaluru, Karnataka, IndiaJob Identification: 263394Job Category: ConsultingPosting Date: 10/21/20... 
@@ -1395,12 +1449,14 @@
 			fitCritical Requirements1. We are looking for high energy, always on individuals who thrive in working alongside and getting work done.2. Ability to h... 
 			Travelkhana is looking for strong Server Side engineers &amp; architects be the leadership team to design, implement and iterate features quickly Expe... 
 			Toggle Navigation Digital Banking SolutionsDramastically Better Digital BankingEmpower Your Business ClientsWhat's NewLatest Customer Success StoryPre... 
-			Travelkhana is looking for strong Mobile engineers &amp; architects. Experience in web or internet Startup is highly desired. Loves change, challenges...</v>
+			Travelkhana is looking for strong Mobile engineers &amp; architects. Experience in web or internet Startup is highly desired. Loves change, challenges... 
+     	 </v>
       </c>
     </row>
     <row r="13" xml:space="preserve">
       <c r="A13" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android Developer
+        <v xml:space="preserve">
+      Android Developer
       Front End/ UI Developer
       iOS Developer
       Java Developer
@@ -1427,7 +1483,8 @@
       Sr. Engineer, Software Development (WPF) Job Details | Landis Gyr</v>
       </c>
       <c r="B13" t="str" xml:space="preserve">
-        <v xml:space="preserve">TravelKhana
+        <v xml:space="preserve">
+		    TravelKhana
 		    TravelKhana
 		    Softence technologies pvt ltd
 		    Softence technologies pvt ltd
@@ -1451,7 +1508,8 @@
 		    AUTODESK
 		    Think Future Technologies Pvt Ltd
 		    professional utilities
-		    landis gyr ltd.  ( australlian mnc )</v>
+		    landis gyr ltd.  ( australlian mnc )
+		    </v>
       </c>
       <c r="C13" t="str">
         <v>Noida/Greater Noida</v>
@@ -1460,7 +1518,8 @@
         <v>Posted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted todayPosted today</v>
       </c>
       <c r="E13" t="str" xml:space="preserve">
-        <v xml:space="preserve">We are looking for an Android developer responsible for the development and maintenance of mobile applications. The primary focus will be the developm... 
+        <v xml:space="preserve">
+			We are looking for an Android developer responsible for the development and maintenance of mobile applications. The primary focus will be the developm... 
 			Experience: 1 to 3 years Required Skills: B.E./ B.Tech/ M.C.A. (Tier I - IIT/BITS/NIT preferred)1-3 years of relevant work experience in development o... 
 			Job DescriptionLooking for developers to work on international projects with latest technologies in IPhone/IOS/IPad including new work on Swift.Hands ... 
 			Must have experience Spring boot, Mongo DB, ORM Framework (Hibernate, JPA)Must have experience Unit Te sting  Junit.Experience and good understanding ... 
@@ -1484,12 +1543,14 @@
 			About Autodesk Construction SolutionsAutodesk has fully reimagined the construction business for the digital age, enabling companies to address the mo... 
 			Exp: 5  YearsSkill-sets:PHP | Vue.js | LaravelJob Description:5  years of experience in PHPGood experience with LaravelGood experience with front-end ... 
 			Graphic Designer Content Pending: A Search Engine Optimization (SEO) Specialist analyzes, reviews and implements changes to websites so they are optim... 
-			Sr. Engineer, Software Development (WPF)Landis Gyr is a leading global provider of integrated energy management solutions. We measure and analyze ener...</v>
+			Sr. Engineer, Software Development (WPF)Landis Gyr is a leading global provider of integrated energy management solutions. We measure and analyze ener... 
+     	 </v>
       </c>
     </row>
     <row r="14" xml:space="preserve">
       <c r="A14" t="str" xml:space="preserve">
-        <v xml:space="preserve">Software Test Engineer
+        <v xml:space="preserve">
+      Software Test Engineer
       MERN Stack Developer
       TPF Developer
       QA | QC Engineer  Hiring For CANADA With Family
@@ -1516,7 +1577,8 @@
       Member Frontline Cashier</v>
       </c>
       <c r="B14" t="str" xml:space="preserve">
-        <v xml:space="preserve">armia systems
+        <v xml:space="preserve">
+		    armia systems
 		    armia systems
 		    Best Infosystems Ltd.
 		    World wide Immigration Service Llp
@@ -1540,7 +1602,8 @@
 		    WALMART INDIA
 		    WALMART INDIA
 		    WALMART INDIA
-		    WALMART INDIA</v>
+		    WALMART INDIA
+		    </v>
       </c>
       <c r="C14" t="str">
         <v>Cochin/ Kochi/ Ernakulam</v>
@@ -1549,7 +1612,8 @@
         <v>2025-04-07</v>
       </c>
       <c r="E14" t="str" xml:space="preserve">
-        <v xml:space="preserve">Job Description Armia Systems is looking out for a Software Test Engineer, who is willing to work as part of our software development team.Job Specifi... 
+        <v xml:space="preserve">
+			Job Description Armia Systems is looking out for a Software Test Engineer, who is willing to work as part of our software development team.Job Specifi... 
 			Job DescriptionDesign algorithms and flowchartsMust have experience in Front End, Middle Tier and Back End development experienceMentor, support team ... 
 			TPF Developer_Full-Time_Greater Noida/Lower Parel (West) Mumbai India_CMMi level 5 Certified MNCJob Title: TPF DeveloperJob Type: Full-TimeJob Locatio... 
 			For more information Call or WhatsAppus on Nine Eight Seven Zero One Seven Zero Six Two NineResponsibilities:Reporting metrics and statistics on quali... 
@@ -1573,12 +1637,14 @@
 			Location HOUSTON, TXCareer Area Customer Service and Call CenterJob Function Customer Service and Call CenterEmployment Type Regular/PermanentPosition... 
 			Location HODGKINS, ILCareer Area Customer Service and Call CenterJob Function Customer Service and Call CenterEmployment Type Regular/PermanentPositio... 
 			Location HODGKINS, ILCareer Area Customer Service and Call CenterJob Function Customer Service and Call CenterEmployment Type Regular/PermanentPositio... 
-			Location HOT SPRINGS, ARCareer Area Customer Service and Call CenterJob Function Customer Service and Call CenterEmployment Type Regular/PermanentPosi...</v>
+			Location HOT SPRINGS, ARCareer Area Customer Service and Call CenterJob Function Customer Service and Call CenterEmployment Type Regular/PermanentPosi... 
+     	 </v>
       </c>
     </row>
     <row r="15" xml:space="preserve">
       <c r="A15" t="str" xml:space="preserve">
-        <v xml:space="preserve">Member Frontline Cashier
+        <v xml:space="preserve">
+      Member Frontline Cashier
       Dot Net Developer
       Dot Net Developer
       Sharepoint Developer
@@ -1605,7 +1671,8 @@
       Field Collection - Bali</v>
       </c>
       <c r="B15" t="str" xml:space="preserve">
-        <v xml:space="preserve">WALMART INDIA
+        <v xml:space="preserve">
+		    WALMART INDIA
 		    Paragyte Technologies
 		    Paragyte Technologies
 		    Paragyte Technologies
@@ -1629,7 +1696,8 @@
 		    Indodana
 		    Indodana
 		    Indodana
-		    Indodana</v>
+		    Indodana
+		    </v>
       </c>
       <c r="C15" t="str" xml:space="preserve">
         <v xml:space="preserve">Pune
@@ -1661,7 +1729,8 @@
         <v>2025-04-07</v>
       </c>
       <c r="E15" t="str" xml:space="preserve">
-        <v xml:space="preserve">Location HOT SPRINGS, ARCareer Area Customer Service and Call CenterJob Function Customer Service and Call CenterEmployment Type Regular/PermanentPosi... 
+        <v xml:space="preserve">
+			Location HOT SPRINGS, ARCareer Area Customer Service and Call CenterJob Function Customer Service and Call CenterEmployment Type Regular/PermanentPosi... 
 			: Dot Net DeveloperSkills Required:3  years experience in MVC ASP.NET, C#, ASP.NET, MS SQL Server, SSRS, ETL, SSISNeed hands-on experience in Jquery, ... 
 			: Dot Net DeveloperSkills Required:3  years experience in MVC ASP.NET, C#, ASP.NET, MS SQL Server, SSRS, ETL, SSISNeed hands-on experience in Jquery, ... 
 			SharePoint DeveloperSkills Required:2-4 years in SharePoint 2010/2013.Need hands-on experience of SharePoint development experience working with US/UK... 
@@ -1685,12 +1754,14 @@
 			Uraian PekerjaanMengunjungi debitur dan melakukan pengiriman Surat Peringatan (SP) dalam masa tunggakan &amp;gt; 20 hari untuk melakukan validasi kond... 
 			Uraian PekerjaanMengunjungi debitur dan melakukan pengiriman Surat Peringatan (SP) dalam masa tunggakan &amp;gt; 20 hari untuk melakukan validasi kond... 
 			Uraian PekerjaanMengunjungi debitur dan melakukan pengiriman Surat Peringatan (SP) dalam masa tunggakan &amp;gt; 20 hari untuk melakukan validasi kond... 
-			Uraian PekerjaanMengunjungi debitur dan melakukan pengiriman Surat Peringatan (SP) dalam masa tunggakan &amp;gt; 20 hari untuk melakukan validasi kond...</v>
+			Uraian PekerjaanMengunjungi debitur dan melakukan pengiriman Surat Peringatan (SP) dalam masa tunggakan &amp;gt; 20 hari untuk melakukan validasi kond... 
+     	 </v>
       </c>
     </row>
     <row r="16" xml:space="preserve">
       <c r="A16" t="str" xml:space="preserve">
-        <v xml:space="preserve">Field Collection - Pekanbaru
+        <v xml:space="preserve">
+      Field Collection - Pekanbaru
       Field Collection - Pekanbaru
       Field Collection - Batam
       Field Collection - Batam
@@ -1717,7 +1788,8 @@
       Software Development Engineer III, Aurora</v>
       </c>
       <c r="B16" t="str" xml:space="preserve">
-        <v xml:space="preserve">Indodana
+        <v xml:space="preserve">
+		    Indodana
 		    Indodana
 		    Indodana
 		    Indodana
@@ -1741,7 +1813,8 @@
 		    AMAZON INDIA PVT LTD
 		    AMAZON INDIA PVT LTD
 		    AMAZON INDIA PVT LTD
-		    AMAZON INDIA PVT LTD</v>
+		    AMAZON INDIA PVT LTD
+		    </v>
       </c>
       <c r="C16" t="str">
         <v>Indonesia</v>
@@ -1750,7 +1823,8 @@
         <v>2025-04-07</v>
       </c>
       <c r="E16" t="str" xml:space="preserve">
-        <v xml:space="preserve">Uraian PekerjaanMengunjungi debitur dan melakukan pengiriman Surat Peringatan (SP) dalam masa tunggakan &amp;gt; 20 hari untuk melakukan validasi kond... 
+        <v xml:space="preserve">
+			Uraian PekerjaanMengunjungi debitur dan melakukan pengiriman Surat Peringatan (SP) dalam masa tunggakan &amp;gt; 20 hari untuk melakukan validasi kond... 
 			Uraian PekerjaanMengunjungi debitur dan melakukan pengiriman Surat Peringatan (SP) dalam masa tunggakan &amp;gt; 20 hari untuk melakukan validasi kond... 
 			Uraian PekerjaanMengunjungi debitur dan melakukan pengiriman Surat Peringatan (SP) dalam masa tunggakan &amp;gt; 20 hari untuk melakukan validasi kond... 
 			Uraian PekerjaanMengunjungi debitur dan melakukan pengiriman Surat Peringatan (SP) dalam masa tunggakan &amp;gt; 20 hari untuk melakukan validasi kond... 
@@ -1774,12 +1848,14 @@
 			AWS Utility Computing (UC) provides product innovations  from foundational services such as Amazons Simple Storage Service (S3) and Amazon Elastic Com... 
 			AWS Utility Computing (UC) provides product innovations  from foundational services such as Amazons Simple Storage Service (S3) and Amazon Elastic Com... 
 			AWS Utility Computing (UC) provides product innovations  from foundational services such as Amazons Simple Storage Service (S3) and Amazon Elastic Com... 
-			AWS Utility Computing (UC) provides product innovations  from foundational services such as Amazons Simple Storage Service (S3) and Amazon Elastic Com...</v>
+			AWS Utility Computing (UC) provides product innovations  from foundational services such as Amazons Simple Storage Service (S3) and Amazon Elastic Com... 
+     	 </v>
       </c>
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str" xml:space="preserve">
-        <v xml:space="preserve">Software Development Engineer III, Aurora
+        <v xml:space="preserve">
+      Software Development Engineer III, Aurora
       Software Development Engineer, Aurora Storage
       Software Development Engineer, Aurora Storage
       Software Dev Engineer, AWS Commerce Platform International Expansion India team
@@ -1806,7 +1882,8 @@
       Golang Developer,Software Engineer</v>
       </c>
       <c r="B17" t="str" xml:space="preserve">
-        <v xml:space="preserve">AMAZON INDIA PVT LTD
+        <v xml:space="preserve">
+		    AMAZON INDIA PVT LTD
 		    AMAZON INDIA PVT LTD
 		    AMAZON INDIA PVT LTD
 		    AMAZON INDIA PVT LTD
@@ -1830,7 +1907,8 @@
 		    LTIMindtree Ltd.
 		    LTIMindtree Ltd.
 		    LTIMindtree Ltd.
-		    Work Pro</v>
+		    Work Pro
+		    </v>
       </c>
       <c r="C17" t="str">
         <v>Pune</v>
@@ -1839,7 +1917,8 @@
         <v>2025-04-07</v>
       </c>
       <c r="E17" t="str" xml:space="preserve">
-        <v xml:space="preserve">AWS Utility Computing (UC) provides product innovations  from foundational services such as Amazons Simple Storage Service (S3) and Amazon Elastic Com... 
+        <v xml:space="preserve">
+			AWS Utility Computing (UC) provides product innovations  from foundational services such as Amazons Simple Storage Service (S3) and Amazon Elastic Com... 
 			AWS Utility Computing (UC) provides product innovations  from foundational services such as Amazons Simple Storage Service (S3) and Amazon Elastic Com... 
 			AWS Utility Computing (UC) provides product innovations  from foundational services such as Amazons Simple Storage Service (S3) and Amazon Elastic Com... 
 			AWS Utility Computing (UC) provides product innovations  from foundational services such as Amazons Simple Storage Service (S3) and Amazon Elastic Com... 
@@ -1863,12 +1942,14 @@
 			Skill - JD Edwrads Manufacturing ConsultantExperience - 4 to 12 YearsLocation - Mumbai, Pune, Bangalore, Chennai, Hyderabad, Kolkata, NCRJD - Function... 
 			Skill - JD Edwrads S&amp;D ConsultantExpereince - 4 to 12 YearsLocation - Mumbai, Pune, Bangalore, Chennai, Hyderabad, Kolkata, NCRJD - Sales and Dist... 
 			Role -JDE-TechnicalExp: 3to 12 YrsLocation : PAN India (LTIMindtee locations) "Have strong JDE Background and good understanding of the JDE Technical.... 
-			We are seeking a passionate and efficient Golang Developer with 15 years of experience to build scalable backend services and APIs. The ideal candidat...</v>
+			We are seeking a passionate and efficient Golang Developer with 15 years of experience to build scalable backend services and APIs. The ideal candidat... 
+     	 </v>
       </c>
     </row>
     <row r="18" xml:space="preserve">
       <c r="A18" t="str" xml:space="preserve">
-        <v xml:space="preserve">Mparticle Braze Consultant
+        <v xml:space="preserve">
+      Mparticle Braze Consultant
       Salesforce Developer
       Business Analyst
       Desktop Support Engineer
@@ -1895,7 +1976,8 @@
       Data Impact Analyst</v>
       </c>
       <c r="B18" t="str" xml:space="preserve">
-        <v xml:space="preserve">LTIMindtree Ltd.
+        <v xml:space="preserve">
+		    LTIMindtree Ltd.
 		    Work Pro
 		    Work Pro
 		    Work Pro
@@ -1919,7 +2001,8 @@
 		    pepsico india ltd
 		    pepsico india ltd
 		    pepsico india ltd
-		    pepsico india ltd</v>
+		    pepsico india ltd
+		    </v>
       </c>
       <c r="C18" t="str">
         <v>Bengaluru / Bangalore</v>
@@ -1928,7 +2011,8 @@
         <v>2025-04-07</v>
       </c>
       <c r="E18" t="str" xml:space="preserve">
-        <v xml:space="preserve">Good experience in Google Analytics analytics Google Tag Manager tagging Braze campaign managementmParticle CDP and Snowflake DW as the different tool... 
+        <v xml:space="preserve">
+			Good experience in Google Analytics analytics Google Tag Manager tagging Braze campaign managementmParticle CDP and Snowflake DW as the different tool... 
 			We are looking for a skilled Salesforce Developer with 15 years of experience to design, develop, and customize Salesforce applications. The ideal can... 
 			We are seeking a detail-oriented and analytical Business Analyst with 15 years of experience to bridge the gap between business needs and technology. ... 
 			Job Description:We are looking for a skilled and customer-focused Desktop Support Engineer with 15 years of experience to provide technical assistance... 
@@ -1952,12 +2036,14 @@
 			OverviewWe are looking for Architect Azure Observability skills to join our team. The ideal candidate will support the observability and reliability o... 
 			OverviewAs Sr. Planogram Analyst deliver visually appealing versioned planograms based on store clustering, space definitions and defined flow. Work c... 
 			OverviewPepsiCo operates in an environment undergoing immense and rapid change. Big-data and digital technologies are driving business transformation ... 
-			OverviewThe Data Impact Analyst is part of the Data Impact team. The purpose of this team is to deliver business impact through data and industry lead...</v>
+			OverviewThe Data Impact Analyst is part of the Data Impact team. The purpose of this team is to deliver business impact through data and industry lead... 
+     	 </v>
       </c>
     </row>
     <row r="19" xml:space="preserve">
       <c r="A19" t="str" xml:space="preserve">
-        <v xml:space="preserve">Associate Manager, D&amp;AI BIOps (Business Intelligence Operations) Consumer &amp; Commercial
+        <v xml:space="preserve">
+      Associate Manager, D&amp;AI BIOps (Business Intelligence Operations) Consumer &amp; Commercial
       Director, D&amp;AI SRE (DataOps)
       Associate Director - D&amp;AI SRE, Automation/Observability (DataOps)
       Associate Manager, D&amp;AI AIOps, MLOps Operations, IBP
@@ -1984,31 +2070,33 @@
       Associate Manager, D&amp;AI AIOps, MLOps Operations, North America</v>
       </c>
       <c r="B19" t="str" xml:space="preserve">
-        <v xml:space="preserve">pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd
-		    pepsico india ltd</v>
+        <v xml:space="preserve">
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    </v>
       </c>
       <c r="C19" t="str">
         <v>Hyderabad/Secunderabad</v>
@@ -2017,7 +2105,8 @@
         <v>2025-04-07</v>
       </c>
       <c r="E19" t="str" xml:space="preserve">
-        <v xml:space="preserve">OverviewWe are seeking a detail-oriented and proactive Associate Manager  BIOps Program Management to support and optimize Business Intelligence Opera... 
+        <v xml:space="preserve">
+			OverviewWe are seeking a detail-oriented and proactive Associate Manager  BIOps Program Management to support and optimize Business Intelligence Opera... 
 			OverviewVisionary Director. In this role, we are seeking a Director  Offshore Program &amp;amp; Delivery Management to oversee end-to-end program exec... 
 			OverviewIn this role, we are seeking a Senior Manager  Offshore Program &amp;amp; Delivery Management to oversee program execution, governance, and se... 
 			OverviewWe are seeking a skilled Associate Manager  AIOps &amp;amp; MLOps Operations to support and enhance the automation, scalability, and reliabili... 
@@ -2041,190 +2130,107 @@
 			OverviewWe are PepsiCoPepsiCo is one of the world's leading food and beverage companies with more than $79 Billion in Net Revenue and a global portfol... 
 			OverviewThe individual will spend time building and maintaining our in-house planogram platform and leverage analytical and critical reasoning to solv... 
 			OverviewThis position will be critical to the mission of the Walmart PCT Advanced Analytics team supporting the Sales, Supply Chain, Commercial and Ad... 
-			OverviewWe are seeking a skilled Associate Manager  AIOps &amp;amp; MLOps Operations to support and enhance the automation, scalability, and reliabili...</v>
+			OverviewWe are seeking a skilled Associate Manager  AIOps &amp;amp; MLOps Operations to support and enhance the automation, scalability, and reliabili... 
+     	 </v>
       </c>
     </row>
     <row r="20" xml:space="preserve">
       <c r="A20" t="str" xml:space="preserve">
-        <v xml:space="preserve">Software Developer 3
-      Senior Applications Developer
-      Applied Scientist 3
-      Software Developer 4
-      Software Developer 3
-      Software Developer 3
-      Senior Security Compliance Analyst
-      Windows Software Engineer
-      Staff Software Engineer (Golang)
-      Senior Software Engineer - Backend, Workflows Operations
-      Senior Full Stack Engineer (Customer Identity)
-      Manager, Software Engineering (Customer Identity)
-      Senior AV Operations Engineer
-      Senior SAP FI/CO IT Consultant
-      Principal Field Application Engineer (Auto)
-      Student Position: System Validation Engineer (f/m/d)
-      Technical Writer/Editor for Technical Documentation F/M
-      Applications Engineer, Power Management
-      Senior Technical NPI Program Manager
-      Junior Software Engineer
-      Customer Success Account Manager Management
-      Technical Support Engineer - Teams/SFB
-      Senior Full Stack Engineer
-      Senior Software Engineer - Cloud Engineering
-      Manager Send Product Development</v>
+        <v xml:space="preserve">
+      Associate Manager, D&amp;AI BIOps (Business Intelligence Operations) Consumer &amp; Commercial
+      Director, D&amp;AI SRE (DataOps)
+      Associate Director - D&amp;AI SRE, Automation/Observability (DataOps)
+      Associate Manager, D&amp;AI AIOps, MLOps Operations, IBP
+      Associate Manager, D&amp;AI AIOps, MLOps Operations, Consumer &amp; Commercial
+      Manager - Planogram
+      Associate Manager - Communications
+      Associate Manager - Sales
+      Associate Manager
+      Lead Software Engineer-Frontend
+      Senior Manager - Marketing
+      SC Analyst
+      Associate Director - D&amp;AI SRE, Hyper Care/Transition Engagement (DataOps)
+      Azure Data Engineer
+      Senior Data Analyst - IBP
+      Associate Manager, D&amp;AI BIOps (Business Intelligence Operations) North America
+      IT Strat &amp; Transf Asst Analyst
+      Manager - People Solutions
+      Associate Manager, D&amp;AI BIOps (Business Intelligence Operations) Agro &amp; Sustainability
+      Executive Manager - Process Excellence &amp; Re-engineering Lead- P2P
+      Associate Manager, D&amp;AI AIOps, MLOps Operations, Supply chain &amp; Procurement
+      Lead Software Engineer
+      Manager - POG Automation
+      Manager - Sales
+      Associate Manager, D&amp;AI AIOps, MLOps Operations, North America</v>
       </c>
       <c r="B20" t="str" xml:space="preserve">
-        <v xml:space="preserve">ORACLE
-		    ORACLE
-		    ORACLE
-		    ORACLE
-		    ORACLE
-		    ORACLE
-		    oktamam infotech pvt. ltd.
-		    oktamam infotech pvt. ltd.
-		    oktamam infotech pvt. ltd.
-		    oktamam infotech pvt. ltd.
-		    oktamam infotech pvt. ltd.
-		    oktamam infotech pvt. ltd.
-		    oktamam infotech pvt. ltd.
-		    Nagarro India Pvt Ltd
-		    NXP Semiconductors
-		    NXP Semiconductors
-		    NXP Semiconductors
-		    NXP Semiconductors
-		    NXP Semiconductors
-		    NXP Semiconductors
-		    Microsoft India Pvt Ltd
-		    Microsoft India Pvt Ltd
-		    MASTERCARD
-		    MASTERCARD
-		    MASTERCARD</v>
+        <v xml:space="preserve">
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    pepsico india ltd
+		    </v>
       </c>
       <c r="C20" t="str">
-        <v>Bengaluru / Bangalore,  Hyderabad/Secunderabad</v>
+        <v>Hyderabad/Secunderabad</v>
       </c>
       <c r="D20" t="str">
         <v>2025-04-07</v>
       </c>
       <c r="E20" t="str" xml:space="preserve">
-        <v xml:space="preserve">Software Developer 3Location:BENGALURU, KARNATAKA, IndiaHYDERABAD, TELANGANA, IndiaJob Identification:287217Job Category:Product DevelopmentPosting Da... 
-			Senior Applications DeveloperLocation: HYDERABAD, TELANGANA, IndiaJob Identification: 287247Job Category: Product DevelopmentPosting Date: 04/04/2025,... 
-			: Applied Scientist 3Location: BENGALURU, KARNATAKA, IndiaJob Identification: 287222Job Category: Product DevelopmentPosting Date: 04/04/2025, 12:09 P... 
-			: Software Developer 4Location: HYDERABAD, TELANGANA, India | BENGALURU, KARNATAKA, IndiaJob Identification: 287221Job Category: Product DevelopmentPo... 
-			Software Developer 3Location:BENGALURU, KARNATAKA, IndiaHYDERABAD, TELANGANA, IndiaJob Identification287218Job CategoryProduct DevelopmentPosting Date... 
-			: Software Developer 3Location:BENGALURU, KARNATAKA, IndiaHYDERABAD, TELANGANA, IndiaJob Identification:287216Job Category:Product DevelopmentPosting ... 
-			: Principal Compliance AnalystGet to know OktaOkta is The Worlds Identity Company. We free everyone to safely use any technologyanywhere, on any devic... 
-			Get to know OktaOkta is The Worlds Identity Company. We free everyone to safely use any technologyanywhere, on any device or app. Our Workforce and Cu... 
-			Get to know OktaOkta is The Worlds Identity Company. We free everyone to safely use any technologyanywhere, on any device or app. Our Workforce and Cu... 
-			Get to know OktaOkta is The Worlds Identity Company. We free everyone to safely use any technologyanywhere, on any device or app. Our Workforce and Cu... 
-			Get to know OktaOkta is The Worlds Identity Company. We free everyone to safely use any technologyanywhere, on any device or app. Our Workforce and Cu... 
-			Get to know OktaOkta is The Worlds Identity Company. We free everyone to safely use any technologyanywhere, on any device or app. Our Workforce and Cu... 
-			Get to know OktaOkta is The Worlds Identity Company. We free everyone to safely use any technologyanywhere, on any device or app. Our Workforce and Cu... 
-			Company DescriptionWe are a Digital Product Engineering company that is scaling in a big way! We build products, services, and experiences that inspir... 
-			Locations:ShenzhenTime Type:Full timePosted On:Posted TodayJob Requisition ID:R-10058089ResponsibilitiesThe role consists of a varied workload; the fo... 
-			Locations: GratkornTime Type: Part timePosted On: Posted 6 Days AgoJob Requisition ID: R-10057751Are you looking for an opportunity to put your theore... 
-			Job Location:ToulouseTime Type:Full timePosted On:Posted 5 Days AgoJob Requisition ID:R-10057875This position is for a pro editor/information develope... 
-			Locations:GuadalajaraTime Type:Full timePosted On:Posted 5 Days AgoJob Requisition ID:R-10058045NXP Semiconductors N.V. (NASDAQ: NXPI) enables secure ... 
-			LocationsShanghai (Pudong)SuzhouTianjin (Teda)Time TypeFull timePosted OnPosted 4 Days AgoJob Requisition IDR-10058049Business Line Description:New Pr... 
-			Location: BangkokTime Type: Full timePosted on: Posted 2 Days AgoJob Requisition ID: R-10054436NXP Semiconductors enables secure connections and infra... 
-			OverviewWith over 17,000 employees worldwide, the mission of the Customer Experience &amp;amp; Success (CE&amp;amp;S) organization is to empower custo... 
-			OverviewWith over 17,000 employees worldwide, the mission of the Customer Experience &amp;amp; Success (CE&amp;amp;S) organization is to empower custo... 
-			Our PurposeMastercard powers economies and empowers people in 200  countries and territories worldwide. Together with our customers, were helping buil... 
-			Our PurposeMastercard powers economies and empowers people in 200  countries and territories worldwide. Together with our customers, were helping buil... 
-			Our PurposeMastercard powers economies and empowers people in 200  countries and territories worldwide. Together with our customers, were helping buil...</v>
-      </c>
-    </row>
-    <row r="21" xml:space="preserve">
-      <c r="A21" t="str" xml:space="preserve">
-        <v xml:space="preserve">Senior Analyst, Technology Account Management
-      Sales Analyst Intern, Summer 2025 - Dubai (UAE National Preferred)
-      Senior Specialist, Product Management
-      Senior Automation engineer
-      Associate Managing Consultant, Advisors &amp; Consulting Services, Business Experimentation
-      Managing Consultant, Advisors Client Services, Strategy &amp; Transformation
-      CVM Sales Support - Chief Manager - L5 - Mumbai (Intellion Square - HO)
-      Assistant Manager - Voice Inbound / Outbound - Mumbai
-      Career Opportunities: Senior-Software Engineer (38923)
-      Career Opportunities: Senior Network Engineer (41340)
-      Career Opportunities: Software Engineer Trainee (37301)
-      Career Opportunities: Associate Director (42068)
-      Career Opportunities: Technical Architect (42160)
-      Career Opportunities: Manager (42282)
-      Career Opportunities: Senior Manager (42386)
-      Career Opportunities: Senior Software Engineer (42413)
-      Career Opportunities: Senior Director &amp; Delivery Lead (42442)
-      Career Opportunities: Senior Tech Lead (42467)
-      Career Opportunities: Senior Manager (42268)
-      Career Opportunities: Business Analyst (42584)
-      Career Opportunities: Operations Manager (42478)
-      Career Opportunities: Senior Data Engineer (42617)
-      Career Opportunities: Senior Data Engineer (42703)
-      Career Opportunities: Product Owner (42656)
-      Career Opportunities: Delivery Director (42745)</v>
-      </c>
-      <c r="B21" t="str" xml:space="preserve">
-        <v xml:space="preserve">MASTERCARD
-		    MASTERCARD
-		    MASTERCARD
-		    MASTERCARD
-		    MASTERCARD
-		    MASTERCARD
-		    kotak mahindra bank
-		    kotak mahindra bank
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc
-		    Incedo Inc</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Singapore</v>
-      </c>
-      <c r="D21" t="str">
-        <v>2025-04-07</v>
-      </c>
-      <c r="E21" t="str" xml:space="preserve">
-        <v xml:space="preserve">Our PurposeMastercard powers economies and empowers people in 200  countries and territories worldwide. Together with our customers, were helping buil... 
-			Our PurposeMastercard powers economies and empowers people in 200  countries and territories worldwide. Together with our customers, were helping buil... 
-			Our PurposeMastercard powers economies and empowers people in 200  countries and territories worldwide. Together with our customers, were helping buil... 
-			Our PurposeMastercard powers economies and empowers people in 200  countries and territories worldwide. Together with our customers, were helping buil... 
-			Our PurposeMastercard powers economies and empowers people in 200  countries and territories worldwide. Together with our customers, were helping buil... 
-			Our PurposeMastercard powers economies and empowers people in 200  countries and territories worldwide. Together with our customers, were helping buil... 
-			Business Service Intelligence Manager (Tech  Cross Sell Automation &amp;amp; Integration)Location: Independent role based in Head OfficeKey Responsibi... 
-			Role: Voice Inbound / Outbound callerWork Location: Goregaon (East), MumbaiEducation: GraduateExperience: 1  4 yearsRespond to customer queries in a t... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science, and technology services firm with over 3000 people helping clients from our six offices... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ... 
-			Company OverviewIncedo is a US-based consulting, data science and technology services firm with over 3000 people helping clients from our six offices ...</v>
+        <v xml:space="preserve">
+			OverviewWe are seeking a detail-oriented and proactive Associate Manager  BIOps Program Management to support and optimize Business Intelligence Opera... 
+			OverviewVisionary Director. In this role, we are seeking a Director  Offshore Program &amp;amp; Delivery Management to oversee end-to-end program exec... 
+			OverviewIn this role, we are seeking a Senior Manager  Offshore Program &amp;amp; Delivery Management to oversee program execution, governance, and se... 
+			OverviewWe are seeking a skilled Associate Manager  AIOps &amp;amp; MLOps Operations to support and enhance the automation, scalability, and reliabili... 
+			OverviewWe are seeking a skilled Associate Manager  AIOps &amp;amp; MLOps Operations to support and enhance the automation, scalability, and reliabili... 
+			OverviewAs Lead Planogram Analyst, deliver visually appealing versioned planograms based on store clustering, space definitions, and defined flow. Wor... 
+			OverviewA creative and experienced Presentation and Graphic Artist, who can visually enhance the regular business reporting presentations and standard... 
+			OverviewProvide data science / data engineer support for the Demand Accelerator group who works with FLNA Sectors, a part of the broader Global Busine... 
+			OverviewAs a Sr. Space Analyst (PMO), they will serve as a critical member of the POG CoE team helping advance the processes and ways-of-working of Pe... 
+			OverviewPepsiCo is one of the world's leading food and beverage companies with more than $79 Billion in Net Revenue and a global portfolio of diverse ... 
+			OverviewLead the APAC Content development teamResponsibilitiesLead the team of Content development designersEnsure the candidate leads the end to end ... 
+			OverviewThis role is responsible for leading and managing the SC reporting and master data team focusing on make and move of logistics and coman. The ... 
+			OverviewIn this role, we are seeking a Senior Manager  Offshore Program &amp;amp; Delivery Management to oversee program execution, governance, and se... 
+			OverviewWe are PepsiCo. PepsiCo is one of the world's leading food and beverage companies with more than $79 Billion in Net Revenue and a global portf... 
+			OverviewPepsiCo is on a digital journey to become an intelligent company, leveraging data-driven solutions to maximize value across the business. Inte... 
+			OverviewWe are seeking a detail-oriented and proactive Associate Manager  BIOps Program Management to support and optimize Business Intelligence Opera... 
+			OverviewPrimary focus would be to lead development work within Azure Data Lake environment and other related ETL technologies, with the responsibility... 
+			OverviewThe objective of this role is to support deploying new integration, technology and solutions for existing and future state programs in Learnin... 
+			OverviewWe are seeking a detail-oriented and proactive Associate Manager  BIOps Program Management to support and optimize Business Intelligence Opera... 
+			OverviewThis role is in the newly formed Process Excellence &amp;amp; Transformation function in PepsiCos Strategy &amp;amp; Transformation team focus... 
+			OverviewWe are seeking a skilled Associate Manager  AIOps &amp;amp; MLOps Operations to support and enhance the automation, scalability, and reliabili... 
+			OverviewWe are PepsiCoPepsiCo is one of the world's leading food and beverage companies with more than $79 Billion in Net Revenue and a global portfol... 
+			OverviewThe individual will spend time building and maintaining our in-house planogram platform and leverage analytical and critical reasoning to solv... 
+			OverviewThis position will be critical to the mission of the Walmart PCT Advanced Analytics team supporting the Sales, Supply Chain, Commercial and Ad... 
+			OverviewWe are seeking a skilled Associate Manager  AIOps &amp;amp; MLOps Operations to support and enhance the automation, scalability, and reliabili... 
+     	 </v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E20"/>
   </ignoredErrors>
 </worksheet>
 </file>